--- a/data/Downscaleddata/pdfs/surface o2_thresholds.xlsx
+++ b/data/Downscaleddata/pdfs/surface o2_thresholds.xlsx
@@ -496,10 +496,10 @@
         <v>6.150419187545777</v>
       </c>
       <c r="D2" t="n">
-        <v>6.896901285100976</v>
+        <v>6.858228537776629</v>
       </c>
       <c r="E2" t="n">
-        <v>6.139009826363375</v>
+        <v>6.097510900342726</v>
       </c>
       <c r="F2" t="n">
         <v>6.576411474225445</v>
@@ -508,10 +508,10 @@
         <v>5.772900851841581</v>
       </c>
       <c r="H2" t="n">
-        <v>6.874272700139254</v>
+        <v>6.845950708523831</v>
       </c>
       <c r="I2" t="n">
-        <v>6.124851285713226</v>
+        <v>6.099200962514638</v>
       </c>
       <c r="J2" t="n">
         <v>6.500905559532678</v>
